--- a/experiments/data.xlsx
+++ b/experiments/data.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arvid\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B70A2D67-4D41-406F-BEA0-2612141D64B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52B1377-320C-4A47-8927-2C100CD75639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Write 8MHz Diagrams" sheetId="2" r:id="rId2"/>
+    <sheet name="Write 16MHz Diag" sheetId="3" r:id="rId2"/>
+    <sheet name="Write 8MHz Diagrams" sheetId="2" r:id="rId3"/>
+    <sheet name="Shift 16MHz" sheetId="5" r:id="rId4"/>
+    <sheet name="Shift 8MHz" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>WRITE (8MHz)</t>
   </si>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,6 +641,1430 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
+              <a:t>Apply Write</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 16MHz</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3185635110887411E-2"/>
+                  <c:y val="-4.5510776505765689E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$21:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F3D-4E7D-AC5C-77643EE2013E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$21:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F3D-4E7D-AC5C-77643EE2013E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571969615"/>
+        <c:axId val="571968655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571969615"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571968655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571968655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571969615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Decode Write 16MHz </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10509592991016968"/>
+                  <c:y val="-5.7644774365036434E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$21:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4039</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12727</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB2A-40D9-9117-FBC763F1D57C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$21:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CB2A-40D9-9117-FBC763F1D57C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571964815"/>
+        <c:axId val="571961455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571964815"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571961455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571961455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571964815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
               <a:t>Write</a:t>
             </a:r>
             <a:r>
@@ -1510,7 +2937,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -1618,7 +3045,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="38100">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1628,7 +3055,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="38100" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -1640,12 +3067,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3185635110887411E-2"/>
-                  <c:y val="-4.5510776505765689E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1783,7 +3204,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="38100">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -1793,7 +3214,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="38100" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -1805,12 +3226,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.051319018492136E-2"/>
-                  <c:y val="8.7566930802435454E-4"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1925,6 +3340,7 @@
       <c:valAx>
         <c:axId val="571969615"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2248,7 +3664,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="sv-SE"/>
@@ -2356,7 +3772,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="38100">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -2521,7 +3937,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="38100">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2531,7 +3947,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="38100" cap="rnd">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -2646,6 +4062,2954 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5DFF-43E4-A188-9C20C0F4DCBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571964815"/>
+        <c:axId val="571961455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571964815"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571961455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571961455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571964815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Apply Shift 16MHz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1811706093618039E-2"/>
+                  <c:y val="-3.7389811333977403E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$59:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-115F-4D22-857C-3ED33E5F18E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$59:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-115F-4D22-857C-3ED33E5F18E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571969615"/>
+        <c:axId val="571968655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571969615"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571968655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571968655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571969615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Decode Shift 16MHz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7910727031277104E-2"/>
+                  <c:y val="-1.6638449773930929E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$59:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1761</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B27F-456B-9750-3EB57933426C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$59:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$59:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>3466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6855</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54767</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B27F-456B-9750-3EB57933426C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571964815"/>
+        <c:axId val="571961455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571964815"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571961455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571961455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571964815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Apply Shift</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 8MHz</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3185635110887411E-2"/>
+                  <c:y val="-4.5510776505765689E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$40:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$D$40:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6278</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E764-4610-81B0-E7F77AC3CD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$F$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_APPLY_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$40:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$F$40:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E764-4610-81B0-E7F77AC3CD7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="571969615"/>
+        <c:axId val="571968655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="571969615"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number of changed words</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571968655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571968655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1200"/>
+                  <a:t>Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571969615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Decode Shift 8MHz</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="38100">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.059124787083088E-2"/>
+                  <c:y val="-3.1481537136102265E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$40:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$C$40:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DB1-49B0-93D0-F327CAD03C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$E$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CYCLES_DECODE_MULTOPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$B$40:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$E$40:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>2799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22225</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2DB1-49B0-93D0-F327CAD03C73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3099,6 +7463,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4647,7 +9251,3230 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>556260</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>21</xdr:col>
+          <xdr:colOff>251460</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="5" name="Grupp 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2391C512-AB61-0504-4546-16F99D97F09B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="13609320" y="3059430"/>
+              <a:ext cx="4572000" cy="2743200"/>
+              <a:chOff x="13609320" y="3059430"/>
+              <a:chExt cx="4572000" cy="2743200"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+        </xdr:grpSp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Grupp 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151F9AE6-274D-4C4A-A8BF-B694C86100C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259080" y="350520"/>
+          <a:ext cx="14058900" cy="5993130"/>
+          <a:chOff x="906780" y="6351270"/>
+          <a:chExt cx="14058900" cy="5993130"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="5" name="Diagram 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B42BCDF-FE07-CCC6-0E8F-708EC30B04E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7932420" y="6351270"/>
+          <a:ext cx="7033260" cy="5993130"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="6" name="Diagram 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B869297D-F2EB-8641-4CE0-012E5F379D5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="906780" y="6355080"/>
+          <a:ext cx="7033260" cy="5989320"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4765,16 +12592,224 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupp 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A71E7AD-BF11-40E0-8BC0-82F1C3C77BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="769620" y="769620"/>
+          <a:ext cx="14058900" cy="5993130"/>
+          <a:chOff x="906780" y="6351270"/>
+          <a:chExt cx="14058900" cy="5993130"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Diagram 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CD72DC-07C2-9F57-1647-C9F1C3C7D188}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="7932420" y="6351270"/>
+          <a:ext cx="7033260" cy="5993130"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Diagram 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D53E841-6433-B2BD-C073-C866AD8F3018}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="906780" y="6355080"/>
+          <a:ext cx="7033260" cy="5989320"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBEA299-F72F-4438-80CA-C22216C80F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4938D440-98C3-4FAA-8238-2B9E044A097F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="WRITE_8MHz" displayName="WRITE_8MHz" ref="A2:F17" totalsRowShown="0">
-  <autoFilter ref="A2:F17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="WRITE_8MHz" displayName="WRITE_8MHz" ref="A2:F17" totalsRowShown="0">
+  <autoFilter ref="A2:F17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="NO_OPERATIONS"/>
-    <tableColumn id="2" name="NO_WORDS"/>
-    <tableColumn id="3" name="CYCLES_DECODE"/>
-    <tableColumn id="4" name="CYCLES_APPLY"/>
-    <tableColumn id="8" name="CYCLES_DECODE_MULTOPS"/>
-    <tableColumn id="9" name="CYCLES_APPLY_MULTOPS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NO_OPERATIONS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="NO_WORDS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CYCLES_DECODE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CYCLES_APPLY"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="CYCLES_DECODE_MULTOPS"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="CYCLES_APPLY_MULTOPS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35ED7DB9-87EB-4DA9-8908-82C1871E61BF}" name="Tabell2" displayName="Tabell2" ref="A20:F29" totalsRowShown="0">
+  <autoFilter ref="A20:F29" xr:uid="{35ED7DB9-87EB-4DA9-8908-82C1871E61BF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FABAB84B-371E-4856-A6C8-E8127C306D07}" name="NO_OPERATIONS"/>
+    <tableColumn id="2" xr3:uid="{23A84CFB-8B71-4401-B5B3-757566221643}" name="NO_WORDS"/>
+    <tableColumn id="3" xr3:uid="{1BB3F408-5687-4A6B-9904-9DBA3FDC7348}" name="CYCLES_DECODE"/>
+    <tableColumn id="4" xr3:uid="{C6B62C87-09D1-4F2A-B7E6-200652F84499}" name="CYCLES_APPLY"/>
+    <tableColumn id="5" xr3:uid="{A4C86838-DCC8-4B9A-912D-BC29862951D9}" name="CYCLES_DECODE_MULTOPS"/>
+    <tableColumn id="6" xr3:uid="{648922D9-0143-4181-B695-837600FE5016}" name="CYCLES_APPLY_MULTOPS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CEF497E1-9A08-47C5-9F2F-30F538C34420}" name="Tabell4" displayName="Tabell4" ref="A39:F49" totalsRowShown="0">
+  <autoFilter ref="A39:F49" xr:uid="{CEF497E1-9A08-47C5-9F2F-30F538C34420}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E947B4BE-655E-465F-B816-B1BDC6262DF1}" name="NO_OPERATIONS"/>
+    <tableColumn id="2" xr3:uid="{7B3C8A00-C773-4648-A722-E4DF73FEB562}" name="NO_WORDS"/>
+    <tableColumn id="3" xr3:uid="{36957683-EF57-4B0A-92B3-112060224A18}" name="CYCLES_DECODE"/>
+    <tableColumn id="4" xr3:uid="{6097931D-6922-4243-A2A8-081FC9476E70}" name="CYCLES_APPLY"/>
+    <tableColumn id="5" xr3:uid="{1772A2DD-61EA-4B77-92B4-0CDAFD23D7C2}" name="CYCLES_DECODE_MULTOPS"/>
+    <tableColumn id="6" xr3:uid="{159EE17C-0983-4E9D-856F-B552930469A3}" name="CYCLES_APPLY_MULTOPS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA5F6D78-5CCB-4CEC-9624-E83FEC32EFCF}" name="Tabell5" displayName="Tabell5" ref="A58:F68" totalsRowShown="0">
+  <autoFilter ref="A58:F68" xr:uid="{FA5F6D78-5CCB-4CEC-9624-E83FEC32EFCF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7E7F2982-F8CE-4C78-8E08-A529A78664C5}" name="NO_OPERATIONS"/>
+    <tableColumn id="2" xr3:uid="{04EE1AF8-9051-41AF-954E-FAFABB37BC33}" name="NO_WORDS"/>
+    <tableColumn id="3" xr3:uid="{D090CF7C-1E89-4185-A1D2-41D47E192DA1}" name="CYCLES_DECODE"/>
+    <tableColumn id="4" xr3:uid="{29C5D351-605B-44FB-ADB4-194F5BF4C572}" name="CYCLES_APPLY"/>
+    <tableColumn id="5" xr3:uid="{913EBEE2-5C6C-4E91-A71F-322327D1AF8A}" name="CYCLES_DECODE_MULTOPS"/>
+    <tableColumn id="6" xr3:uid="{16A77ABA-1D24-4B5C-8BA2-2340F3917C78}" name="CYCLES_APPLY_MULTOPS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5096,20 +13131,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5371,7 +13406,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>64</v>
       </c>
@@ -5385,12 +13420,12 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -5403,8 +13438,14 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5418,7 +13459,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5431,8 +13472,14 @@
       <c r="D22">
         <v>191</v>
       </c>
+      <c r="E22">
+        <v>2927</v>
+      </c>
+      <c r="F22">
+        <v>244</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5445,8 +13492,14 @@
       <c r="D23">
         <v>217</v>
       </c>
+      <c r="E23">
+        <v>5819</v>
+      </c>
+      <c r="F23">
+        <v>389</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5459,8 +13512,14 @@
       <c r="D24">
         <v>269</v>
       </c>
+      <c r="E24">
+        <v>11596</v>
+      </c>
+      <c r="F24">
+        <v>667</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5473,8 +13532,14 @@
       <c r="D25">
         <v>373</v>
       </c>
+      <c r="E25">
+        <v>23102</v>
+      </c>
+      <c r="F25">
+        <v>1227</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5487,8 +13552,14 @@
       <c r="D26">
         <v>581</v>
       </c>
+      <c r="E26">
+        <v>46141</v>
+      </c>
+      <c r="F26">
+        <v>2347</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5501,8 +13572,14 @@
       <c r="D27">
         <v>997</v>
       </c>
+      <c r="E27">
+        <v>92226</v>
+      </c>
+      <c r="F27">
+        <v>4448</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5516,7 +13593,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5530,7 +13607,7 @@
         <v>3493</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -5544,7 +13621,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5558,7 +13635,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>8</v>
       </c>
@@ -5572,7 +13649,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -5586,7 +13663,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5600,7 +13677,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>64</v>
       </c>
@@ -5614,12 +13691,12 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -5632,8 +13709,14 @@
       <c r="D39" t="s">
         <v>4</v>
       </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -5647,7 +13730,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -5660,8 +13743,14 @@
       <c r="D41">
         <v>158</v>
       </c>
+      <c r="E41">
+        <v>2799</v>
+      </c>
+      <c r="F41">
+        <v>202</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -5674,8 +13763,14 @@
       <c r="D42">
         <v>182</v>
       </c>
+      <c r="E42">
+        <v>5545</v>
+      </c>
+      <c r="F42">
+        <v>314</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -5688,8 +13783,14 @@
       <c r="D43">
         <v>230</v>
       </c>
+      <c r="E43">
+        <v>11139</v>
+      </c>
+      <c r="F43">
+        <v>538</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5702,8 +13803,14 @@
       <c r="D44">
         <v>326</v>
       </c>
+      <c r="E44">
+        <v>22225</v>
+      </c>
+      <c r="F44">
+        <v>986</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -5716,8 +13823,14 @@
       <c r="D45">
         <v>518</v>
       </c>
+      <c r="E45">
+        <v>44397</v>
+      </c>
+      <c r="F45">
+        <v>1882</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -5731,7 +13844,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -5745,7 +13858,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5759,7 +13872,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5773,7 +13886,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -5787,7 +13900,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -5801,7 +13914,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
@@ -5815,7 +13928,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>16</v>
       </c>
@@ -5829,7 +13942,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>32</v>
       </c>
@@ -5843,12 +13956,12 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -5861,8 +13974,14 @@
       <c r="D58" t="s">
         <v>4</v>
       </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5876,7 +13995,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5889,8 +14008,14 @@
       <c r="D60">
         <v>194</v>
       </c>
+      <c r="E60">
+        <v>3466</v>
+      </c>
+      <c r="F60">
+        <v>253</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5903,8 +14028,14 @@
       <c r="D61">
         <v>225</v>
       </c>
+      <c r="E61">
+        <v>6855</v>
+      </c>
+      <c r="F61">
+        <v>394</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5917,8 +14048,14 @@
       <c r="D62">
         <v>281</v>
       </c>
+      <c r="E62">
+        <v>13739</v>
+      </c>
+      <c r="F62">
+        <v>679</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5931,8 +14068,14 @@
       <c r="D63">
         <v>400</v>
       </c>
+      <c r="E63">
+        <v>27415</v>
+      </c>
+      <c r="F63">
+        <v>1251</v>
+      </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5944,6 +14087,12 @@
       </c>
       <c r="D64">
         <v>638</v>
+      </c>
+      <c r="E64">
+        <v>54767</v>
+      </c>
+      <c r="F64">
+        <v>2395</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6075,18 +14224,67 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0800EFFB-C640-4294-897C-418E580D4D4C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511FAEE8-A039-4877-815E-AA071CB2A5A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5173AA6-7A00-4F7D-9953-6CD8CA9A5703}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
